--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.485012999999999</v>
+        <v>4.055275000000001</v>
       </c>
       <c r="H2">
-        <v>16.455039</v>
+        <v>12.165825</v>
       </c>
       <c r="I2">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="J2">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N2">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O2">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P2">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q2">
-        <v>1.251636086496</v>
+        <v>4.293658933841668</v>
       </c>
       <c r="R2">
-        <v>11.264724778464</v>
+        <v>38.64293040457501</v>
       </c>
       <c r="S2">
-        <v>0.03461607075273328</v>
+        <v>0.09765082581441051</v>
       </c>
       <c r="T2">
-        <v>0.03461607075273328</v>
+        <v>0.09765082581441051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.485012999999999</v>
+        <v>4.055275000000001</v>
       </c>
       <c r="H3">
-        <v>16.455039</v>
+        <v>12.165825</v>
       </c>
       <c r="I3">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="J3">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>3.010662</v>
       </c>
       <c r="O3">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P3">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q3">
-        <v>5.504506736202</v>
+        <v>4.069687447350001</v>
       </c>
       <c r="R3">
-        <v>49.540560625818</v>
+        <v>36.62718702615</v>
       </c>
       <c r="S3">
-        <v>0.1522362583622059</v>
+        <v>0.09255703495868838</v>
       </c>
       <c r="T3">
-        <v>0.1522362583622059</v>
+        <v>0.09255703495868838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.485012999999999</v>
+        <v>4.055275000000001</v>
       </c>
       <c r="H4">
-        <v>16.455039</v>
+        <v>12.165825</v>
       </c>
       <c r="I4">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="J4">
-        <v>0.2716272065325074</v>
+        <v>0.1947228515851206</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N4">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O4">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P4">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q4">
-        <v>3.065261119959</v>
+        <v>0.19852193235</v>
       </c>
       <c r="R4">
-        <v>27.587350079631</v>
+        <v>1.78669739115</v>
       </c>
       <c r="S4">
-        <v>0.0847748774175682</v>
+        <v>0.004514990812021705</v>
       </c>
       <c r="T4">
-        <v>0.0847748774175682</v>
+        <v>0.004514990812021705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.542812333333334</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H5">
         <v>19.628437</v>
       </c>
       <c r="I5">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="J5">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N5">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O5">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P5">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q5">
-        <v>1.493017431968</v>
+        <v>6.927422832598556</v>
       </c>
       <c r="R5">
-        <v>13.437156887712</v>
+        <v>62.346805493387</v>
       </c>
       <c r="S5">
-        <v>0.04129187198873049</v>
+        <v>0.1575506044593055</v>
       </c>
       <c r="T5">
-        <v>0.04129187198873049</v>
+        <v>0.1575506044593055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.542812333333334</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H6">
         <v>19.628437</v>
       </c>
       <c r="I6">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="J6">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>3.010662</v>
       </c>
       <c r="O6">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P6">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q6">
-        <v>6.566065488366001</v>
+        <v>6.566065488366</v>
       </c>
       <c r="R6">
-        <v>59.094589395294</v>
+        <v>59.09458939529399</v>
       </c>
       <c r="S6">
-        <v>0.1815954253513639</v>
+        <v>0.1493322425395246</v>
       </c>
       <c r="T6">
-        <v>0.1815954253513639</v>
+        <v>0.1493322425395246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.542812333333334</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H7">
         <v>19.628437</v>
       </c>
       <c r="I7">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="J7">
-        <v>0.3240112351547335</v>
+        <v>0.3141673684110111</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N7">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O7">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P7">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q7">
-        <v>3.656404872797001</v>
+        <v>0.320296834966</v>
       </c>
       <c r="R7">
-        <v>32.90764385517301</v>
+        <v>2.882671514694</v>
       </c>
       <c r="S7">
-        <v>0.101123937814639</v>
+        <v>0.007284521412180995</v>
       </c>
       <c r="T7">
-        <v>0.101123937814639</v>
+        <v>0.007284521412180996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.205681333333334</v>
+        <v>6.7998</v>
       </c>
       <c r="H8">
-        <v>15.617044</v>
+        <v>20.3994</v>
       </c>
       <c r="I8">
-        <v>0.2577942255873873</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="J8">
-        <v>0.2577942255873872</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N8">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O8">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P8">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q8">
-        <v>1.187894834816</v>
+        <v>7.199517176600001</v>
       </c>
       <c r="R8">
-        <v>10.691053513344</v>
+        <v>64.7956545894</v>
       </c>
       <c r="S8">
-        <v>0.03285320077652498</v>
+        <v>0.1637388550401214</v>
       </c>
       <c r="T8">
-        <v>0.03285320077652497</v>
+        <v>0.1637388550401215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.205681333333334</v>
+        <v>6.7998</v>
       </c>
       <c r="H9">
-        <v>15.617044</v>
+        <v>20.3994</v>
       </c>
       <c r="I9">
-        <v>0.2577942255873873</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="J9">
-        <v>0.2577942255873872</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>3.010662</v>
       </c>
       <c r="O9">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P9">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q9">
-        <v>5.224182324792</v>
+        <v>6.823966489200001</v>
       </c>
       <c r="R9">
-        <v>47.017640923128</v>
+        <v>61.4156984028</v>
       </c>
       <c r="S9">
-        <v>0.1444834220835294</v>
+        <v>0.1551976934516374</v>
       </c>
       <c r="T9">
-        <v>0.1444834220835294</v>
+        <v>0.1551976934516375</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.205681333333334</v>
+        <v>6.7998</v>
       </c>
       <c r="H10">
-        <v>15.617044</v>
+        <v>20.3994</v>
       </c>
       <c r="I10">
-        <v>0.2577942255873873</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="J10">
-        <v>0.2577942255873872</v>
+        <v>0.3265071903159472</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N10">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O10">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P10">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q10">
-        <v>2.909158573364</v>
+        <v>0.3328774092</v>
       </c>
       <c r="R10">
-        <v>26.182427160276</v>
+        <v>2.9958966828</v>
       </c>
       <c r="S10">
-        <v>0.08045760272733289</v>
+        <v>0.007570641824188293</v>
       </c>
       <c r="T10">
-        <v>0.08045760272733288</v>
+        <v>0.007570641824188294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.959658333333334</v>
+        <v>3.427994</v>
       </c>
       <c r="H11">
-        <v>8.878975000000001</v>
+        <v>10.283982</v>
       </c>
       <c r="I11">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="J11">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N11">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O11">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P11">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q11">
-        <v>0.6753703544000002</v>
+        <v>3.629504056631334</v>
       </c>
       <c r="R11">
-        <v>6.078333189600001</v>
+        <v>32.66553650968201</v>
       </c>
       <c r="S11">
-        <v>0.01867848668190638</v>
+        <v>0.08254592968093268</v>
       </c>
       <c r="T11">
-        <v>0.01867848668190638</v>
+        <v>0.08254592968093269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.959658333333334</v>
+        <v>3.427994</v>
       </c>
       <c r="H12">
-        <v>8.878975000000001</v>
+        <v>10.283982</v>
       </c>
       <c r="I12">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="J12">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>3.010662</v>
       </c>
       <c r="O12">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P12">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q12">
-        <v>2.97017695905</v>
+        <v>3.440177090676</v>
       </c>
       <c r="R12">
-        <v>26.73159263145</v>
+        <v>30.961593816084</v>
       </c>
       <c r="S12">
-        <v>0.08214516733090496</v>
+        <v>0.07824006029089861</v>
       </c>
       <c r="T12">
-        <v>0.08214516733090496</v>
+        <v>0.07824006029089864</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.959658333333334</v>
+        <v>3.427994</v>
       </c>
       <c r="H13">
-        <v>8.878975000000001</v>
+        <v>10.283982</v>
       </c>
       <c r="I13">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="J13">
-        <v>0.1465673327253718</v>
+        <v>0.164602589687921</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N13">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O13">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P13">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q13">
-        <v>1.653984341975</v>
+        <v>0.167814018276</v>
       </c>
       <c r="R13">
-        <v>14.885859077775</v>
+        <v>1.510326164484</v>
       </c>
       <c r="S13">
-        <v>0.04574367871256049</v>
+        <v>0.003816599716089668</v>
       </c>
       <c r="T13">
-        <v>0.04574367871256049</v>
+        <v>0.003816599716089669</v>
       </c>
     </row>
   </sheetData>
